--- a/نتایج نظرسنجی.xlsx
+++ b/نتایج نظرسنجی.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>موافق</t>
   </si>
@@ -71,6 +71,33 @@
   </si>
   <si>
     <t>برگزاری وبینار توسط افراد موفق در حوزه ی کامپیوتر و بحث و تبادل نظر میان آن افراد و بقیه ی افراد</t>
+  </si>
+  <si>
+    <t>قابلیت 1</t>
+  </si>
+  <si>
+    <t>قابلیت 2</t>
+  </si>
+  <si>
+    <t>قابلیت 3</t>
+  </si>
+  <si>
+    <t>قابلیت 4</t>
+  </si>
+  <si>
+    <t>قابلیت 5</t>
+  </si>
+  <si>
+    <t>قابلیت 6</t>
+  </si>
+  <si>
+    <t>قابلیت 7</t>
+  </si>
+  <si>
+    <t>قابلیت 8</t>
+  </si>
+  <si>
+    <t>قابلیت 9</t>
   </si>
 </sst>
 </file>
@@ -140,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +179,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -175,6 +205,595 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21611027098433888"/>
+          <c:y val="0.1098319745214183"/>
+          <c:w val="0.70146147294502093"/>
+          <c:h val="0.7162502151233785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>موافق</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>قابلیت 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>قابلیت 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>قابلیت 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>قابلیت 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>قابلیت 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>قابلیت 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>قابلیت 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>قابلیت 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>قابلیت 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>مخالف</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>قابلیت 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>قابلیت 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>قابلیت 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>قابلیت 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>قابلیت 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>قابلیت 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>قابلیت 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>قابلیت 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>قابلیت 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>نظری ندارم</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>قابلیت 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>قابلیت 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>قابلیت 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>قابلیت 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>قابلیت 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>قابلیت 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>قابلیت 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>قابلیت 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>قابلیت 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>امتیاز</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>قابلیت 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>قابلیت 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>قابلیت 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>قابلیت 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>قابلیت 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>قابلیت 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>قابلیت 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>قابلیت 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>قابلیت 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-1846635408"/>
+        <c:axId val="-1846626160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1846635408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1846626160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1846626160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1846635408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33217726095496342"/>
+          <c:y val="0.93565369045401503"/>
+          <c:w val="0.33343797257130936"/>
+          <c:h val="4.7468676153432303E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -284,31 +903,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>شبکه ای برای معرفی و تبادل نظر در رابطه با استارتاپ ها</c:v>
+                  <c:v>قابلیت 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>شبکه ای برای ارائه و دانلود فیلم های آموزشی مرتبط با رشته کامپیوتر</c:v>
+                  <c:v>قابلیت 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای کنکور ارشد و دکتری برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>شبکه ای برای پرسش و پاسخ در رابطه با مشکلات برنامه نویسی</c:v>
+                  <c:v>قابلیت 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای اپلای در رشته های برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>شبکه ای برای متصل کردن شرکت های کامپیتری و دانشجویان جویای کار</c:v>
+                  <c:v>قابلیت 6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>شبکه ای درون دانشگاهی برای بحث و تبادل نظر دانشجویان در رابطه با اساتید دانشکده</c:v>
+                  <c:v>قابلیت 7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>شبکه ای درون دانشگاهی برای قرار دادن جزوه ها و مطالب درسی مرتبط برای دروس ارائه شده</c:v>
+                  <c:v>قابلیت 8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>شبکه ای درون دانشگاهی برای پرسش و پاسخ در رابطه با تکالیف یک درس </c:v>
+                  <c:v>قابلیت 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -372,31 +991,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>شبکه ای برای معرفی و تبادل نظر در رابطه با استارتاپ ها</c:v>
+                  <c:v>قابلیت 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>شبکه ای برای ارائه و دانلود فیلم های آموزشی مرتبط با رشته کامپیوتر</c:v>
+                  <c:v>قابلیت 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای کنکور ارشد و دکتری برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>شبکه ای برای پرسش و پاسخ در رابطه با مشکلات برنامه نویسی</c:v>
+                  <c:v>قابلیت 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای اپلای در رشته های برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>شبکه ای برای متصل کردن شرکت های کامپیتری و دانشجویان جویای کار</c:v>
+                  <c:v>قابلیت 6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>شبکه ای درون دانشگاهی برای بحث و تبادل نظر دانشجویان در رابطه با اساتید دانشکده</c:v>
+                  <c:v>قابلیت 7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>شبکه ای درون دانشگاهی برای قرار دادن جزوه ها و مطالب درسی مرتبط برای دروس ارائه شده</c:v>
+                  <c:v>قابلیت 8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>شبکه ای درون دانشگاهی برای پرسش و پاسخ در رابطه با تکالیف یک درس </c:v>
+                  <c:v>قابلیت 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -460,31 +1079,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>شبکه ای برای معرفی و تبادل نظر در رابطه با استارتاپ ها</c:v>
+                  <c:v>قابلیت 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>شبکه ای برای ارائه و دانلود فیلم های آموزشی مرتبط با رشته کامپیوتر</c:v>
+                  <c:v>قابلیت 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای کنکور ارشد و دکتری برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>شبکه ای برای پرسش و پاسخ در رابطه با مشکلات برنامه نویسی</c:v>
+                  <c:v>قابلیت 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای اپلای در رشته های برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>شبکه ای برای متصل کردن شرکت های کامپیتری و دانشجویان جویای کار</c:v>
+                  <c:v>قابلیت 6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>شبکه ای درون دانشگاهی برای بحث و تبادل نظر دانشجویان در رابطه با اساتید دانشکده</c:v>
+                  <c:v>قابلیت 7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>شبکه ای درون دانشگاهی برای قرار دادن جزوه ها و مطالب درسی مرتبط برای دروس ارائه شده</c:v>
+                  <c:v>قابلیت 8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>شبکه ای درون دانشگاهی برای پرسش و پاسخ در رابطه با تکالیف یک درس </c:v>
+                  <c:v>قابلیت 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,31 +1167,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>شبکه ای برای معرفی و تبادل نظر در رابطه با استارتاپ ها</c:v>
+                  <c:v>قابلیت 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>شبکه ای برای ارائه و دانلود فیلم های آموزشی مرتبط با رشته کامپیوتر</c:v>
+                  <c:v>قابلیت 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای کنکور ارشد و دکتری برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>شبکه ای برای پرسش و پاسخ در رابطه با مشکلات برنامه نویسی</c:v>
+                  <c:v>قابلیت 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>شبکه ای برای بحث و تبادل نظر برای اپلای در رشته های برق و کامپیوتر</c:v>
+                  <c:v>قابلیت 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>شبکه ای برای متصل کردن شرکت های کامپیتری و دانشجویان جویای کار</c:v>
+                  <c:v>قابلیت 6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>شبکه ای درون دانشگاهی برای بحث و تبادل نظر دانشجویان در رابطه با اساتید دانشکده</c:v>
+                  <c:v>قابلیت 7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>شبکه ای درون دانشگاهی برای قرار دادن جزوه ها و مطالب درسی مرتبط برای دروس ارائه شده</c:v>
+                  <c:v>قابلیت 8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>شبکه ای درون دانشگاهی برای پرسش و پاسخ در رابطه با تکالیف یک درس </c:v>
+                  <c:v>قابلیت 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -623,11 +1242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2047777216"/>
-        <c:axId val="2047765792"/>
+        <c:axId val="-1741313536"/>
+        <c:axId val="-1741311904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047777216"/>
+        <c:axId val="-1741313536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047765792"/>
+        <c:crossAx val="-1741311904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -678,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047765792"/>
+        <c:axId val="-1741311904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +1348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047777216"/>
+        <c:crossAx val="-1741313536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -850,6 +1469,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1355,20 +2014,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2447926</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1382,6 +2546,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1677,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,10 +2886,11 @@
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="85.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1710,9 +2907,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>64</v>
@@ -1727,10 +2924,13 @@
         <f>B2-C2</f>
         <v>58</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>56</v>
@@ -1745,10 +2945,13 @@
         <f t="shared" ref="E3:E10" si="0">B3-C3</f>
         <v>47</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>37</v>
@@ -1763,10 +2966,13 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>53</v>
@@ -1781,10 +2987,13 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>57</v>
@@ -1799,10 +3008,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>73</v>
@@ -1817,10 +3029,13 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>32</v>
@@ -1835,10 +3050,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>54</v>
@@ -1853,10 +3071,13 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>37</v>
@@ -1871,23 +3092,26 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1895,6 +3119,56 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
